--- a/NBA_stats/2017_playoff_traditional.xlsx
+++ b/NBA_stats/2017_playoff_traditional.xlsx
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
